--- a/PreContract.Api/bin/Debug/net5.0/Templates/Formato VTexToVTex.xlsx
+++ b/PreContract.Api/bin/Debug/net5.0/Templates/Formato VTexToVTex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" updateLinks="always"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC0AFA-088B-4149-BA4B-78AE735C32A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148DF621-BC23-461F-961E-BFABAF7B258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONTRATO SELLER CENTER" sheetId="1" r:id="rId1"/>
+    <sheet name="CONTRATO VTEX TO VTEX" sheetId="1" r:id="rId1"/>
     <sheet name="DATA MAESTRA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Seller Center</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>DOOZBA</t>
+  </si>
+  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -172,6 +175,24 @@
     <t>AHORROS</t>
   </si>
   <si>
+    <t>SuperMegaPop</t>
+  </si>
+  <si>
+    <t>1911196140021</t>
+  </si>
+  <si>
+    <t>00219100119614002152</t>
+  </si>
+  <si>
+    <t>DecoEspacios</t>
+  </si>
+  <si>
+    <t>1942687262059</t>
+  </si>
+  <si>
+    <t>00219400268726205991</t>
+  </si>
+  <si>
     <t>CORRIENTE</t>
   </si>
   <si>
@@ -322,16 +343,13 @@
     <t>Banco de Crédito del Perú</t>
   </si>
   <si>
-    <t>3336 - Aceite</t>
-  </si>
-  <si>
     <t>3335 - Abarrotes</t>
   </si>
   <si>
-    <t>Rango de Meses</t>
-  </si>
-  <si>
-    <t>qacoolboxpe</t>
+    <t>4182 - Abarrotes/Aceite/Aceite Vegetal</t>
+  </si>
+  <si>
+    <t>3787 - Accesorios/Accesorios Hombre/Bolsos y Maletines</t>
   </si>
 </sst>
 </file>
@@ -512,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,12 +588,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -949,44 +962,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1002,160 +1013,234 @@
       <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>20378890161</v>
+        <v>20539793943</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="17">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10">
+        <v>44197</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>20539793943</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10">
-        <v>44197</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>20378890161</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="17">
         <v>15</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="G4" s="10">
+        <v>44197</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>20552259409</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="17">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44197</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>20606725982</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="17">
         <v>15</v>
       </c>
-      <c r="H4" s="10">
+      <c r="G6" s="10">
         <v>44197</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="H6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="24"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="L6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'DATA MAESTRA'!$F$2:$F$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C4</xm:sqref>
+          <xm:sqref>C3:C6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'DATA MAESTRA'!$I$2:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>D3:D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>'DATA MAESTRA'!$N$2:$N$19</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I4</xm:sqref>
+          <xm:sqref>H3:H6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'DATA MAESTRA'!$Q$2:$Q$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L4</xm:sqref>
+          <xm:sqref>K3:K6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>'DATA MAESTRA'!$T$2:$T$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M4</xm:sqref>
+          <xm:sqref>L3:L6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8430D726-7E35-4036-A3B7-DB96B6B0320C}">
+          <x14:formula1>
+            <xm:f>'DATA MAESTRA'!$B$2:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D0ECA7A-EBF2-4D7E-821A-47368A4141FD}">
+          <x14:formula1>
+            <xm:f>'DATA MAESTRA'!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1165,16 +1250,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E1:U23"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
@@ -1190,382 +1275,457 @@
     <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="5:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="E2" s="1">
         <v>847</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4">
         <v>844</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5">
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1">
         <v>848</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4">
         <v>845</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2">
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="E4" s="1">
         <v>849</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4">
         <v>846</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="E5" s="1">
         <v>850</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="E6" s="1">
         <v>851</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="E7" s="1">
         <v>852</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="E8" s="1">
         <v>853</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="E9" s="1">
         <v>854</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="E10" s="1">
         <v>855</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="E11" s="1">
         <v>856</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="E12" s="1">
         <v>857</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="E13" s="1">
         <v>858</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="E14" s="1">
         <v>859</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I14" s="20"/>
       <c r="N14" s="19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="E15" s="1">
         <v>860</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="E16" s="1">
         <v>861</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O16" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="E17" s="1">
         <v>914</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="E18" s="1">
         <v>915</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="E19" s="1">
         <v>916</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="E20" s="1">
         <v>917</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="E21" s="1">
         <v>918</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="E22" s="1">
         <v>919</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="E23" s="1">
         <v>920</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
